--- a/BDA_Afo-Liste_TechDok_Bankverbindung.xlsx
+++ b/BDA_Afo-Liste_TechDok_Bankverbindung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra Großmann KLS\Documents\BDA\Bausteindokumentation\Bankverbindung\Neuer Ordner\Bankverbindung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra Großmann KLS\Documents\BDA\Bausteindokumentation\Bankverbindung\11.06.2021\Bankverbindung-master\Bankverbindung-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3200C39-BF55-4B8A-8441-3F80E0E65885}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC0516-B88B-485D-87D9-758C671FB66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{9BEFB5E1-A994-4D0E-AEC7-05FE4F48A389}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>Basisdienst Digitaler Antrag - Anforderungserhebung und Dokumentation</t>
   </si>
@@ -143,16 +143,6 @@
   </si>
   <si>
     <t>Ja</t>
-  </si>
-  <si>
-    <t>Familienname
-&gt; Beschriftung: 'Familienname'
-&gt; Beschriftungsposition: 'Prefix'</t>
-  </si>
-  <si>
-    <t>Vorname
-&gt; Beschriftung: 'Vorname'
-&gt; Beschriftungsposition: 'Prefix'</t>
   </si>
   <si>
     <t>Bank
@@ -160,40 +150,85 @@
 &gt; Beschriftungsposition: 'Prefix'</t>
   </si>
   <si>
-    <t>Prüfung der IBAN auf Gültigkeit</t>
+    <t>Textfeld</t>
+  </si>
+  <si>
+    <t>F00000013</t>
+  </si>
+  <si>
+    <t>F00000045</t>
+  </si>
+  <si>
+    <t>F00000107</t>
+  </si>
+  <si>
+    <t>F00000106</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Geben Sie die IBAN (International Bank Account Number) Ihres Kontos an. Definition:
+Die IBAN (International Bank Account Number) ist eine internationale, standardisierte und weltweit eindeutige Notation für ein Bankkonto. Die Notation wird durch die ISO-Norm ISO 13616:2003 beschrieben.</t>
+  </si>
+  <si>
+    <t>Geben Sie den BIC (Bank Identifier Code) Ihres Geldinsitutes an.
+Definition:
+Der BIC (Bank Identifier Code, auch SWIFT-Code oder SWIFT-Adresse genannt) ist ein nach ISO 9362 international standardisierter Bankcode, den weltweit jedes direkt oder indirekt teilnehmende Geldinstitut eindeutig identifiziert werden kann.</t>
+  </si>
+  <si>
+    <t>Familienname
+&gt; Beschriftung: 'Familienname'
+&gt; Beschriftungsposition: 'Prefix'
+&gt; fim_FieldName: 'F00000013'
+&gt; fim_Label: 'Familienname'</t>
+  </si>
+  <si>
+    <t>Vorname
+&gt; Beschriftung: 'Vorname'
+&gt; Beschriftungsposition: 'Prefix'
+&gt; fim_FielName: 'F00000045'
+&gt; fim_Label: 'Vorname'</t>
+  </si>
+  <si>
+    <t>F00000106h</t>
+  </si>
+  <si>
+    <t>F00000107h</t>
   </si>
   <si>
     <t>IBAN
 &gt; Beschriftung: 'IBAN'
 &gt; Beschriftungsposition: 'Prefix'
-&gt; Prüfausdruck: 'isValidIBAN(value)'</t>
-  </si>
-  <si>
-    <t>Textfeld</t>
-  </si>
-  <si>
-    <t>Prüfung der BIC auf Gültigkeit</t>
+&gt; fim_FieldName: 'F00000106'
+&gt; fim_Label: 'IBAN'
+&gt; Prüfausdruck: 'isValidIBAN(value.replace(/\s+/g, ""))'
+&gt; Prüfmeldung: 'Bitte geben Sie eine gültige IBAN ein.'</t>
   </si>
   <si>
     <t>BIC
 &gt; Beschriftung: 'BIC'
 &gt; Beschriftungsposition: 'Prefix'
-&gt; Prüfausdruck: 'isValidBIC(value)'</t>
-  </si>
-  <si>
-    <t>F00000013</t>
-  </si>
-  <si>
-    <t>F00000045</t>
-  </si>
-  <si>
-    <t>F00000107</t>
-  </si>
-  <si>
-    <t>F00000106</t>
-  </si>
-  <si>
-    <t>Bank</t>
+&gt; fim_FieldName: 'F00000107'
+&gt; Prüfausdruck: 'isValidBIC(value.replace(/\s+/g.""))'
+&gt; Prüfmeldung: 'Bitte geben Sie eine gültige BIC ein.'</t>
+  </si>
+  <si>
+    <t>F00000106
+&gt; Wert (berechnet): myForm.F00000106h.replace(/\s+/g, "")</t>
+  </si>
+  <si>
+    <t>Berechnetes Feld</t>
+  </si>
+  <si>
+    <t>F00000107
+&gt; Wert (berechnet): 'myForm.F00000107h.replace(/\s+/g, "")'</t>
+  </si>
+  <si>
+    <t>Bereinigung der Eingaben von Leerzeichen, Prüfung der IBAN auf Gültigkeit</t>
+  </si>
+  <si>
+    <t>Bereinigung des zu übermittelnden Wertes von Leerzeichen</t>
   </si>
   <si>
     <r>
@@ -210,11 +245,13 @@
 - Vorname
 - Bank
 - IBAN
-Das Datenfeld „IBAN“ enthält im Attribut „Prüfausdruck“ eine Funktion "isValidIBAN(value)", die eine Prüfung auf dem cit intelliForm Server anstößt. 
+Das Datenfeld „IBAN“ enthält im Attribut „Prüfausdruck“ eine Funktion "isValidIBAN(value.replace(/\s+/g, "")", die nach vorheriger Bereinigng der Eingabe von Lerrzeichen, eine Prüfung auf dem cit intelliForm Server anstößt. 
 Der cit intelliForm-Server liefert einen Wert zurück (true oder false), der die Eingabe als gültig oder ungültig deklariert. Bei ungültiger IBAN-Eingabe wird eine entsprechende Fehlermeldung ausgelöst. 
 - BIC
-Das Datenfeld „BIC“ enthält im Attribut „Prüfausdruck“ eine Funktion "isValidBIC(value)", die eine Prüfung auf dem cit intelliForm Server anstößt. 
+Das Datenfeld „BIC“ enthält im Attribut „Prüfausdruck“ eine Funktion "isValidBIC(value.replace(/\s+/g."")", die nach vorheriger Bereinigung der Eingabe von Leerzeichen, auf dem cit intelliForm Server eine Prüfung anstößt. 
 Der cit intelliForm-Server liefert einen Wert zurück (true oder false), der die Eingabe als gültig oder ungültig deklariert. Bei ungültiger BIC-Eingabe wird eine entsprechende Fehlermeldung ausgelöst. 
+- F00000106 und F00000107 
+Mit Hilfe dieser berechneten Felder werden IBAN- und BIC-Werte vor der Übergabe von Leerzeichen bereinigt. 
 </t>
     </r>
     <r>
@@ -256,15 +293,6 @@
 1.	Composer-Datei des Antragsassistenten öffnen und den Baustein "Bankverbindung" als Referenz einfügen
 2.	Den Baustein mit den entsprechenden Satz verbinden und Gliederungsnummer vergeben</t>
     </r>
-  </si>
-  <si>
-    <t>Geben Sie die IBAN (International Bank Account Number) Ihres Kontos an. Definition:
-Die IBAN (International Bank Account Number) ist eine internationale, standardisierte und weltweit eindeutige Notation für ein Bankkonto. Die Notation wird durch die ISO-Norm ISO 13616:2003 beschrieben.</t>
-  </si>
-  <si>
-    <t>Geben Sie den BIC (Bank Identifier Code) Ihres Geldinsitutes an.
-Definition:
-Der BIC (Bank Identifier Code, auch SWIFT-Code oder SWIFT-Adresse genannt) ist ein nach ISO 9362 international standardisierter Bankcode, den weltweit jedes direkt oder indirekt teilnehmende Geldinstitut eindeutig identifiziert werden kann.</t>
   </si>
 </sst>
 </file>
@@ -869,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB95573-48C0-46EE-AEBF-13BA3550EE4F}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>44267</v>
+        <v>44358</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -924,7 +952,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -1356,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A41B80-2BE5-4CB5-950A-5173CC40021C}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,7 +1394,7 @@
     <col min="2" max="2" width="16.44140625" style="18" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="18" customWidth="1"/>
     <col min="4" max="4" width="21.109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="40.5546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="48.77734375" style="18" customWidth="1"/>
     <col min="6" max="6" width="14.44140625" style="18" customWidth="1"/>
     <col min="7" max="7" width="19.88671875" style="18" customWidth="1"/>
     <col min="8" max="8" width="18.44140625" style="18" customWidth="1"/>
@@ -1456,7 +1484,7 @@
       <c r="N2" s="17"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
         <v>19</v>
@@ -1464,14 +1492,14 @@
       <c r="C3" s="15"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>37</v>
@@ -1487,7 +1515,7 @@
       <c r="N3" s="17"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
         <v>19</v>
@@ -1495,14 +1523,14 @@
       <c r="C4" s="15"/>
       <c r="D4" s="20"/>
       <c r="E4" s="21" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I4" s="20" t="s">
         <v>37</v>
@@ -1526,14 +1554,14 @@
       <c r="C5" s="15"/>
       <c r="D5" s="20"/>
       <c r="E5" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>37</v>
@@ -1549,30 +1577,30 @@
       <c r="N5" s="17"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="B6" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="20" t="s">
-        <v>41</v>
+      <c r="D6" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>37</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>8</v>
@@ -1590,24 +1618,24 @@
         <v>19</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="20" t="s">
-        <v>44</v>
+      <c r="D7" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I7" s="20" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>8</v>
@@ -1619,36 +1647,64 @@
       <c r="N7" s="14"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="K8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="17">
+        <v>44357</v>
+      </c>
       <c r="M8" s="17"/>
       <c r="N8" s="14"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="K9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="17">
+        <v>44357</v>
+      </c>
       <c r="M9" s="17"/>
       <c r="N9" s="14"/>
       <c r="O9" s="16"/>
